--- a/data_analyzed/Energy (kcal)/Energy (kcal)_trainings_pregame.xlsx
+++ b/data_analyzed/Energy (kcal)/Energy (kcal)_trainings_pregame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,42 +441,112 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Tollaksen</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
         </is>
       </c>
     </row>
@@ -485,28 +555,62 @@
         <v>44803</v>
       </c>
       <c r="B2" t="n">
+        <v>665.2515</v>
+      </c>
+      <c r="C2" t="n">
         <v>640.1744</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>670.8605</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>779.6707</v>
+      </c>
+      <c r="G2" t="n">
+        <v>824.9546</v>
+      </c>
+      <c r="H2" t="n">
         <v>603.0765</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
+        <v>695.3825000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>658.4766</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>725.4476</v>
+      </c>
+      <c r="M2" t="n">
         <v>790.4619</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
+        <v>788.4167</v>
+      </c>
+      <c r="O2" t="n">
         <v>677.2832</v>
       </c>
-      <c r="G2" t="n">
+      <c r="P2" t="n">
+        <v>715.1943</v>
+      </c>
+      <c r="Q2" t="n">
         <v>663.6866</v>
       </c>
-      <c r="H2" t="n">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
         <v>661.7877999999999</v>
       </c>
-      <c r="I2" t="n">
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>800.2089</v>
+      </c>
+      <c r="V2" t="n">
         <v>272.5958</v>
+      </c>
+      <c r="W2" t="n">
+        <v>637.4342</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +618,68 @@
         <v>44807</v>
       </c>
       <c r="B3" t="n">
+        <v>519.0682</v>
+      </c>
+      <c r="C3" t="n">
         <v>420.1565</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>298.4097</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>294.0178</v>
+      </c>
+      <c r="F3" t="n">
+        <v>461.3162</v>
+      </c>
+      <c r="G3" t="n">
+        <v>452.4021</v>
+      </c>
+      <c r="H3" t="n">
         <v>279.6842</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
+        <v>408.1442</v>
+      </c>
+      <c r="J3" t="n">
+        <v>433.3555</v>
+      </c>
+      <c r="K3" t="n">
+        <v>288.2412</v>
+      </c>
+      <c r="L3" t="n">
+        <v>603.7234999999999</v>
+      </c>
+      <c r="M3" t="n">
         <v>545.6038</v>
       </c>
-      <c r="F3" t="n">
+      <c r="N3" t="n">
+        <v>440.5764</v>
+      </c>
+      <c r="O3" t="n">
         <v>535.3630000000001</v>
       </c>
-      <c r="G3" t="n">
+      <c r="P3" t="n">
+        <v>360.5946</v>
+      </c>
+      <c r="Q3" t="n">
         <v>356.5623</v>
       </c>
-      <c r="H3" t="n">
+      <c r="R3" t="n">
+        <v>454.0465</v>
+      </c>
+      <c r="S3" t="n">
         <v>498.1062</v>
       </c>
-      <c r="I3" t="n">
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>445.3439</v>
+      </c>
+      <c r="V3" t="n">
         <v>146.4231</v>
+      </c>
+      <c r="W3" t="n">
+        <v>420.0008</v>
       </c>
     </row>
     <row r="4">
@@ -543,83 +687,195 @@
         <v>44812</v>
       </c>
       <c r="B4" t="n">
+        <v>540.2351</v>
+      </c>
+      <c r="C4" t="n">
         <v>456.9402</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>478.8517</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>260.6904</v>
+      </c>
+      <c r="F4" t="n">
+        <v>665.1731</v>
+      </c>
+      <c r="G4" t="n">
+        <v>518.8987</v>
+      </c>
+      <c r="H4" t="n">
         <v>624.0218</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
+        <v>634.8641</v>
+      </c>
+      <c r="J4" t="n">
+        <v>602.8357</v>
+      </c>
+      <c r="K4" t="n">
+        <v>445.3059</v>
+      </c>
+      <c r="L4" t="n">
+        <v>703.6967</v>
+      </c>
+      <c r="M4" t="n">
         <v>703.6943</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
+        <v>578.3936</v>
+      </c>
+      <c r="O4" t="n">
         <v>770.2661000000001</v>
       </c>
-      <c r="G4" t="n">
+      <c r="P4" t="n">
+        <v>579.48</v>
+      </c>
+      <c r="Q4" t="n">
         <v>520.8792999999999</v>
       </c>
-      <c r="H4" t="n">
+      <c r="R4" t="n">
+        <v>569.0826</v>
+      </c>
+      <c r="S4" t="n">
         <v>567.2286</v>
       </c>
-      <c r="I4" t="n">
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>696.1316</v>
+      </c>
+      <c r="V4" t="n">
         <v>224.0441</v>
       </c>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>44819</v>
       </c>
       <c r="B5" t="n">
+        <v>497.8744</v>
+      </c>
+      <c r="C5" t="n">
         <v>457.7425</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>269.8513</v>
+      </c>
+      <c r="F5" t="n">
+        <v>578.1309</v>
+      </c>
+      <c r="G5" t="n">
+        <v>596.7133</v>
+      </c>
+      <c r="H5" t="n">
         <v>383.2716</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
+        <v>435.0821</v>
+      </c>
+      <c r="J5" t="n">
+        <v>425.721</v>
+      </c>
+      <c r="K5" t="n">
+        <v>373.8116</v>
+      </c>
+      <c r="L5" t="n">
+        <v>325.4119</v>
+      </c>
+      <c r="M5" t="n">
         <v>528.1039</v>
       </c>
-      <c r="F5" t="n">
+      <c r="N5" t="n">
+        <v>545.8407</v>
+      </c>
+      <c r="O5" t="n">
         <v>508.8996</v>
       </c>
-      <c r="G5" t="n">
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
         <v>481.3024</v>
       </c>
-      <c r="H5" t="n">
+      <c r="R5" t="n">
+        <v>438.782</v>
+      </c>
+      <c r="S5" t="n">
         <v>491.3095</v>
       </c>
-      <c r="I5" t="n">
+      <c r="T5" t="n">
+        <v>211.6593</v>
+      </c>
+      <c r="U5" t="n">
+        <v>554.0063</v>
+      </c>
+      <c r="V5" t="n">
         <v>191.6313</v>
       </c>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44821</v>
       </c>
       <c r="B6" t="n">
+        <v>502.4344</v>
+      </c>
+      <c r="C6" t="n">
         <v>393.6091</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>187.3585</v>
+      </c>
+      <c r="F6" t="n">
+        <v>478.5848</v>
+      </c>
+      <c r="G6" t="n">
+        <v>515.1994</v>
+      </c>
+      <c r="H6" t="n">
         <v>393.3857</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
+        <v>489.3714</v>
+      </c>
+      <c r="J6" t="n">
+        <v>275.5775</v>
+      </c>
+      <c r="K6" t="n">
+        <v>157.8899</v>
+      </c>
+      <c r="L6" t="n">
+        <v>484.0656</v>
+      </c>
+      <c r="M6" t="n">
         <v>261.3154</v>
       </c>
-      <c r="F6" t="n">
+      <c r="N6" t="n">
+        <v>348.7925</v>
+      </c>
+      <c r="O6" t="n">
         <v>517.1587</v>
       </c>
-      <c r="G6" t="n">
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
         <v>356.5423</v>
       </c>
-      <c r="H6" t="n">
+      <c r="R6" t="n">
+        <v>390.0852</v>
+      </c>
+      <c r="S6" t="n">
         <v>356.0464</v>
       </c>
-      <c r="I6" t="n">
+      <c r="T6" t="n">
+        <v>182.1284</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="n">
         <v>136.9055</v>
       </c>
+      <c r="W6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
